--- a/example/Multiple Locations/Multiple Locations.xlsx
+++ b/example/Multiple Locations/Multiple Locations.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>136.5252694404915</v>
+        <v>462.09</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01558507642014743</v>
+        <v>0.05275</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -559,16 +559,16 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0.03044430815275629</v>
+        <v>0.09720000000000001</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0.0008000764182544353</v>
+        <v>0.002554416</v>
       </c>
       <c r="J4">
-        <v>4.935982979119455E-05</v>
+        <v>0.0004083841432672076</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -597,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0.04390789973271764</v>
+        <v>0.12715</v>
       </c>
       <c r="H5">
         <v>48.50000000000001</v>
       </c>
       <c r="I5">
-        <v>0.01865471028044242</v>
+        <v>0.054020949</v>
       </c>
       <c r="J5">
-        <v>0.001150881719843242</v>
+        <v>0.008636533350811503</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -635,16 +635,16 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.055412126143576</v>
+        <v>0.13995</v>
       </c>
       <c r="H6">
         <v>155</v>
       </c>
       <c r="I6">
-        <v>0.07523858487774748</v>
+        <v>0.19002411</v>
       </c>
       <c r="J6">
-        <v>0.004641761285001319</v>
+        <v>0.0303798728799317</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -673,16 +673,16 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>0.06453812728576523</v>
+        <v>0.13675</v>
       </c>
       <c r="H7">
         <v>339.0000000000001</v>
       </c>
       <c r="I7">
-        <v>0.1916550043128999</v>
+        <v>0.40609827</v>
       </c>
       <c r="J7">
-        <v>0.01182394353298758</v>
+        <v>0.06492446573942739</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -711,16 +711,16 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>0.07103579668788011</v>
+        <v>0.12145</v>
       </c>
       <c r="H8">
         <v>627.5</v>
       </c>
       <c r="I8">
-        <v>0.3904766708136082</v>
+        <v>0.667598505</v>
       </c>
       <c r="J8">
-        <v>0.02409002636378498</v>
+        <v>0.1067314969491632</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -749,16 +749,16 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>0.07483104562049918</v>
+        <v>0.0993</v>
       </c>
       <c r="H9">
         <v>1035.5</v>
       </c>
       <c r="I9">
-        <v>0.6787909182026356</v>
+        <v>0.9007483139999999</v>
       </c>
       <c r="J9">
-        <v>0.04187725499945395</v>
+        <v>0.1440060383713035</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -787,16 +787,16 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>0.07601681116683777</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="H10">
         <v>1549</v>
       </c>
       <c r="I10">
-        <v>1.031490354757502</v>
+        <v>1.021763772</v>
       </c>
       <c r="J10">
-        <v>0.06363665667483498</v>
+        <v>0.1633532371585875</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -825,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>0.07483007402004073</v>
+        <v>0.0532</v>
       </c>
       <c r="H11">
         <v>2090</v>
       </c>
       <c r="I11">
-        <v>1.370018927188513</v>
+        <v>0.9740068799999999</v>
       </c>
       <c r="J11">
-        <v>0.08452180256015827</v>
+        <v>0.1557181622825592</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -863,16 +863,16 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>0.0716185936340569</v>
+        <v>0.03515</v>
       </c>
       <c r="H12">
         <v>2580</v>
       </c>
       <c r="I12">
-        <v>1.618637511004593</v>
+        <v>0.79441812</v>
       </c>
       <c r="J12">
-        <v>0.09986005113254269</v>
+        <v>0.1270066282595105</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -901,16 +901,16 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>0.06680188464351978</v>
+        <v>0.02175</v>
       </c>
       <c r="H13">
         <v>2900</v>
       </c>
       <c r="I13">
-        <v>1.697035077483976</v>
+        <v>0.5525369999999999</v>
       </c>
       <c r="J13">
-        <v>0.1046967022938266</v>
+        <v>0.08833617913778846</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -939,16 +939,16 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>0.06083109522034371</v>
+        <v>0.01265</v>
       </c>
       <c r="H14">
         <v>3000</v>
       </c>
       <c r="I14">
-        <v>1.598641182390633</v>
+        <v>0.332442</v>
       </c>
       <c r="J14">
-        <v>0.09862639975335658</v>
+        <v>0.05314875938611292</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -977,16 +977,16 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <v>0.05415196493101602</v>
+        <v>0.00695</v>
       </c>
       <c r="H15">
         <v>3000</v>
       </c>
       <c r="I15">
-        <v>1.423113638387101</v>
+        <v>0.182646</v>
       </c>
       <c r="J15">
-        <v>0.08779742204822258</v>
+        <v>0.02920030654019642</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1015,16 +1015,16 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>0.04717408653031335</v>
+        <v>0.0036</v>
       </c>
       <c r="H16">
         <v>3000</v>
       </c>
       <c r="I16">
-        <v>1.239734994016635</v>
+        <v>0.09460799999999998</v>
       </c>
       <c r="J16">
-        <v>0.07648407938876213</v>
+        <v>0.0151253386395262</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1053,16 +1053,16 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <v>0.04024847567590928</v>
+        <v>0.00175</v>
       </c>
       <c r="H17">
         <v>3000</v>
       </c>
       <c r="I17">
-        <v>1.057729940762896</v>
+        <v>0.04599</v>
       </c>
       <c r="J17">
-        <v>0.06525547891414486</v>
+        <v>0.007352595171991906</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1091,16 +1091,16 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>0.03365417844985096</v>
+        <v>0.0008</v>
       </c>
       <c r="H18">
         <v>3000</v>
       </c>
       <c r="I18">
-        <v>0.8844318096620832</v>
+        <v>0.021024</v>
       </c>
       <c r="J18">
-        <v>0.05456404237245696</v>
+        <v>0.003361186364339157</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1129,16 +1129,16 @@
         <v>17</v>
       </c>
       <c r="G19">
-        <v>0.02759350586032332</v>
+        <v>0.00035</v>
       </c>
       <c r="H19">
         <v>3000</v>
       </c>
       <c r="I19">
-        <v>0.7251573340092968</v>
+        <v>0.009198</v>
       </c>
       <c r="J19">
-        <v>0.04473777974437491</v>
+        <v>0.001470519034398381</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1167,16 +1167,16 @@
         <v>18</v>
       </c>
       <c r="G20">
-        <v>0.02219461089145613</v>
+        <v>0.00015</v>
       </c>
       <c r="H20">
         <v>3000</v>
       </c>
       <c r="I20">
-        <v>0.5832743742274672</v>
+        <v>0.003942</v>
       </c>
       <c r="J20">
-        <v>0.03598446745405459</v>
+        <v>0.0006302224433135921</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="G21">
-        <v>0.01751958516769861</v>
+        <v>5E-05</v>
       </c>
       <c r="H21">
         <v>3000</v>
       </c>
       <c r="I21">
-        <v>0.4604146982071196</v>
+        <v>0.001314</v>
       </c>
       <c r="J21">
-        <v>0.0284047756168717</v>
+        <v>0.0002100741477711973</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1243,16 +1243,16 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>0.01357605281502967</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>3000</v>
       </c>
       <c r="I22">
-        <v>0.3567786679789796</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02201106534672436</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1281,16 +1281,16 @@
         <v>21</v>
       </c>
       <c r="G23">
-        <v>0.01033033110548918</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>3000</v>
       </c>
       <c r="I23">
-        <v>0.2714811014522556</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01674872631347558</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="G24">
-        <v>0.007720530974857794</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>3000</v>
       </c>
       <c r="I24">
-        <v>0.2028955540192628</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01251741681579729</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1357,16 +1357,16 @@
         <v>23</v>
       </c>
       <c r="G25">
-        <v>0.005668393418263427</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>3000</v>
       </c>
       <c r="I25">
-        <v>0.1489653790319629</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.009190254313257542</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1395,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="G26">
-        <v>0.004089113537075872</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>3000</v>
       </c>
       <c r="I26">
-        <v>0.1074619037543539</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.006629743306177284</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1433,16 +1433,16 @@
         <v>25</v>
       </c>
       <c r="G27">
-        <v>0.002898823896833613</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>3000</v>
       </c>
       <c r="I27">
-        <v>0.07618109200878735</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.004699908220098611</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1471,7 +1471,7 @@
         <v>26</v>
       </c>
       <c r="G28">
-        <v>0.002019748001176711</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>27</v>
       </c>
       <c r="G29">
-        <v>0.001383272478443796</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>28</v>
       </c>
       <c r="G30">
-        <v>0.0009313228421608906</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>29</v>
       </c>
       <c r="G31">
-        <v>0.0006164765922323374</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>0.000401230866411203</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
